--- a/Week 7/Class example-Zinc-Expected value and variance.xlsx
+++ b/Week 7/Class example-Zinc-Expected value and variance.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\wf\Education\2022\GSOE9830-T3\Week 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b8fa4194a2c3a9b/Obsidian/GSOE9830-Economic_Analysis/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE61B132-74DD-4EF0-BDA3-1796D7DB4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{CE61B132-74DD-4EF0-BDA3-1796D7DB4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F047CB5-098D-46DC-8AD1-5E5545625953}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BDEBC2B-8D9C-4D55-9650-5F34C3B09495}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" activeTab="2" xr2:uid="{8BDEBC2B-8D9C-4D55-9650-5F34C3B09495}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Formula 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Formula 2" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t xml:space="preserve">Values </t>
   </si>
@@ -71,11 +89,47 @@
   <si>
     <t>ST</t>
   </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurance </t>
+  </si>
+  <si>
+    <t>Frequency of occurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value * probability </t>
+  </si>
+  <si>
+    <t>Distance from mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Standard Deivation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -144,6 +198,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +217,876 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Occurence Distribution </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Occurance </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C699-4A77-B016-389642A93BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1783809631"/>
+        <c:axId val="1783813951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1783809631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783813951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1783813951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783809631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -170,13 +1096,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -186,7 +1112,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F1EAAC-ADF2-E660-1435-9C5F8ED3DB1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -207,23 +1133,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -234,10 +1147,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E72F989-9105-14E3-CD0B-AE2F84F8889E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +1229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -381,7 +1335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,7 +1477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,20 +1487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438476DA-2101-440B-BC04-280A02B3D8BD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="44.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -577,7 +1531,7 @@
         <v>28.40909090909091</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -594,7 +1548,7 @@
         <v>92.181818181818173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>27</v>
       </c>
@@ -611,7 +1565,7 @@
         <v>165.68181818181819</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -628,7 +1582,7 @@
         <v>142.54545454545456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>29</v>
       </c>
@@ -645,7 +1599,7 @@
         <v>114.68181818181817</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -662,7 +1616,7 @@
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -679,7 +1633,7 @@
         <v>87.36363636363636</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -696,7 +1650,7 @@
         <v>46.545454545454547</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -713,7 +1667,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="44.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -727,7 +1681,7 @@
         <v>808.72727272727275</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -739,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>SQRT(D12)</f>
         <v>2.0570379089063717</v>
@@ -762,13 +1716,13 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>317500</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>146050</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -783,25 +1737,574 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008D1421-BF27-49E4-BC8D-D08A6F553A7C}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/$B$11</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> C2*A2</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="E2">
+        <f>$D$11-A2</f>
+        <v>3.3636363636363598</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> E2^2*C2</f>
+        <v>0.51427498121712878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C10" si="0">B3/$B$11</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1" xml:space="preserve"> C3*A3</f>
+        <v>3.545454545454545</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="2">$D$11-A3</f>
+        <v>2.3636363636363598</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="3" xml:space="preserve"> E3^2*C3</f>
+        <v>0.7618332081141973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6.1363636363636358</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1.3636363636363598</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.42261457550713505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.0909090909090908</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.36363636363635976</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2.4042073628849976E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.9545454545454541</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-0.63636363636364024</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>5.5221637866266632E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-1.6363636363636402</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.24342599549211236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-2.6363636363636402</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.63185574755822871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-3.6363636363636402</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.6010518407212635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-4.6363636363636402</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.97708489857250347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>28.36363636363636</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>4.2314049586776852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f>SQRT(F11)</f>
+        <v>2.0570379089063198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAAA2F2-9DE0-49FE-A66B-29A6ECA44271}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>35000</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4">
+        <f xml:space="preserve"> A2*B2</f>
+        <v>3500</v>
+      </c>
+      <c r="D2" s="4">
+        <f>$C$6-A2</f>
+        <v>13700</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2^2*B2</f>
+        <v>18769000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C5" si="0" xml:space="preserve"> A3*B3</f>
+        <v>13200</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D5" si="1">$C$6-A3</f>
+        <v>4700</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E5" si="2">D3^2*B3</f>
+        <v>6627000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>-1300</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
+        <v>676000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>-11300</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>25538000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>48700</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>51610000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SQRT(E6)</f>
+        <v>7184.0100222647243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="4">
+        <f xml:space="preserve"> A10*B10</f>
+        <v>5000</v>
+      </c>
+      <c r="D10" s="4">
+        <f>$C$6-A10</f>
+        <v>23700</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10^2*B10</f>
+        <v>112338000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>30000</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:C13" si="3" xml:space="preserve"> A11*B11</f>
+        <v>12000</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:D13" si="4">$C$6-A11</f>
+        <v>18700</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E13" si="5">D11^2*B11</f>
+        <v>139876000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>35000</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
+        <v>10500</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="4"/>
+        <v>13700</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="5"/>
+        <v>56307000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="5"/>
+        <v>1369000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <f>SUM(C10:C13)</f>
+        <v>32000</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(E10:E13)</f>
+        <v>309890000</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SQRT(E14)</f>
+        <v>17603.692794411065</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE534F2-C839-4212-B226-B6CCCCF3E863}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="60.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +2324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -846,7 +2349,7 @@
         <v>0.51427498121712878</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -871,7 +2374,7 @@
         <v>0.7618332081141973</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>27</v>
       </c>
@@ -896,7 +2399,7 @@
         <v>0.42261457550713505</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -921,7 +2424,7 @@
         <v>2.4042073628849976E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>29</v>
       </c>
@@ -946,7 +2449,7 @@
         <v>5.5221637866266632E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -971,7 +2474,7 @@
         <v>0.24342599549211236</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -996,7 +2499,7 @@
         <v>0.63185574755822871</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -1021,7 +2524,7 @@
         <v>0.6010518407212635</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -1046,7 +2549,7 @@
         <v>0.97708489857250347</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1065,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
